--- a/biology/Botanique/Bromus_diandrus/Bromus_diandrus.xlsx
+++ b/biology/Botanique/Bromus_diandrus/Bromus_diandrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bromus diandrus, le brome à deux étamines, est une espèce de plantes monocotylédones de la famille des Poaceae, originaire du bassin méditerranéen.
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (21 février 2016)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (21 février 2016) :
 Anisantha diandra (Roth) Tutin ex Tzvelev
 Anisantha gussonei (Parl.) Nevski
 Anisantha macranthera (Hack. ex Trab.) P.
@@ -550,8 +567,43 @@
 Bromus villosus var. gussonei (Parl.) Asch. &amp; Graebn
 Bromus villosus subsp. gussonei (Parl.) Holmb
 Zerna gussonei (Parl.) Grossh.
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (21 février 2016)[3] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bromus_diandrus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bromus_diandrus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RTaxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (21 février 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Bromus diandrus subsp. maximus (Desf.) Soó
 sous-espèce Bromus diandrus subsp. rigidus (Roth) Laínz
 variété Bromus diandrus var. diandrus
